--- a/Dimension Tables/Vendors Table.xlsx
+++ b/Dimension Tables/Vendors Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Desktop\PowerBI Projects\NYC Trips Project\NYC-Trips-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Desktop\PowerBI Projects\Trips Project\NYC-Trips-Project\Dimension Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6DCE406-CB76-493B-A36F-2E5E67A8F416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12EB19A-A97F-430D-A626-A6BA0A84C87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BAAF0998-85A4-47EA-98B8-491974907AB8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>VendorID</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Creative Mobile Technologies</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB500CDD-BB00-4043-B78F-4B3DA0883DDA}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,6 +457,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
